--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,92 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538</v>
+        <v>01013673102815383151019251841180</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01013673102815383151019251841180</v>
+        <v>010136731028153831510192518411810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>485_情人草_Limonium/Misty_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>6</v>
+      </c>
+      <c r="C30" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010136731028153831510192518411810</v>
+        <v>010136731028153831510192518411810104101978125300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010136731028153831510192518411810104101978125300</v>
+        <v>0101367310281538315101925184118101041019781253025</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,91 @@
         <v>25</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F35" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F36" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F37" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>7</v>
+      </c>
+      <c r="C38" t="str">
+        <v>369_芦苇叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +841,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -780,6 +780,9 @@
       <c r="C41" t="str">
         <v>389_金合欢_mimosa_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -841,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025252515406050610130</v>
+        <v>01013673102815383151019251841181010410197812530252525154060506101312</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,9 +784,90 @@
         <v>12</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F42" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>8</v>
+      </c>
+      <c r="C49" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -844,7 +925,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01013673102815383151019251841181010410197812530252525154060506101312</v>
+        <v>010136731028153831510192518411810104101978125302525251540605061013122515256551512100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -864,6 +864,9 @@
       <c r="C51" t="str">
         <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -925,7 +928,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010136731028153831510192518411810104101978125302525251540605061013122515256551512100</v>
+        <v>010136731028153831510192518411810104101978125302525251540605061013122515256551512105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,9 +868,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>474_掌_anthurium_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>728_金边朱蕉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>9</v>
+      </c>
+      <c r="C59" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -928,7 +1008,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010136731028153831510192518411810104101978125302525251540605061013122515256551512105</v>
+        <v>01013673102815383151019251841181010410197812530252525154060506101312251525655151210561010810553550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -947,10 +947,92 @@
       <c r="C61" t="str">
         <v>615_康乃馨野马_horse_undefined_20stems</v>
       </c>
+      <c r="F61" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>450_柔丽思 黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>371_红朱蕉_Cordyline red_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1008,7 +1090,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01013673102815383151019251841181010410197812530252525154060506101312251525655151210561010810553550</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -1029,6 +1029,9 @@
       <c r="C71" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1090,7 +1093,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568120</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,9 +1033,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>10</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1093,7 +1173,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -1112,6 +1112,9 @@
       <c r="C81" t="str">
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1173,7 +1176,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015120</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015125</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1116,9 +1116,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>519_金鱼草粉色_snapdragon pink_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F83" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F84" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F85" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F86" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F87" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F88" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1176,7 +1253,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015125</v>
+        <v>01013673102815383151019251841181010410197812530252525154060506101312251525655151210561010810553556581012515681251055203160151255166107520650</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -1192,6 +1192,9 @@
       <c r="C91" t="str">
         <v>578_腊梅粉_wax pink_undefined_1bunch</v>
       </c>
+      <c r="F91" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1253,7 +1256,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01013673102815383151019251841181010410197812530252525154060506101312251525655151210561010810553556581012515681251055203160151255166107520650</v>
+        <v>010136731028153831510192518411810104101978125302525251540605061013122515256551512105610108105535565810125156812510552031601512551661075206512</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,9 +1196,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L92"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1256,7 +1261,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010136731028153831510192518411810104101978125302525251540605061013122515256551512105610108105535565810125156812510552031601512551661075206512</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015125516610752065120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/International Ever Green_2024-12-24.xlsx
+++ b/DateBase/orders/International Ever Green_2024-12-24.xlsx
@@ -1200,6 +1200,9 @@
       <c r="C92" t="str">
         <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
       </c>
+      <c r="F92" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1261,7 +1264,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015125516610752065120</v>
+        <v>0101367310281538315101925184118101041019781253025252515406050610131225152565515121056101081055355658101251568125105520316015125516610752065125</v>
       </c>
     </row>
   </sheetData>
